--- a/documents/FICHE E6 tableau_synthese_GASSAMA_Mame_Djibril.xlsx
+++ b/documents/FICHE E6 tableau_synthese_GASSAMA_Mame_Djibril.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\Dossier_exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Desktop\portfoliosite-master (2)\portfoliosite-master\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92AC38E8-47E4-46B4-8638-F034FE4DDB10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE8E1F-EF72-4BEF-BACF-90CE0351924B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tableau de synthèse SLAM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS - SESSION 2021 - TABLEAU DE SYNTHESE</t>
   </si>
@@ -205,15 +205,9 @@
     <t>SITUATIONS VÉCUES EN FORMATION</t>
   </si>
   <si>
-    <t>SITUATIONS VÉCUES OU OBSERVÉES EN STAGE DE DEUXIEME ANNEE DANS L'ORGANISATION …</t>
-  </si>
-  <si>
     <t>Je soussigné-e                                                  , formatrice (formateur) au centre de formation                   , certifie que le candidat (la candidate) a bien effectué en formation les activités et missions présentées dans ce tableau.</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Site web : Bibliolib</t>
   </si>
   <si>
@@ -227,13 +221,16 @@
   </si>
   <si>
     <t>Réalisation du site echop (e-commerce)</t>
+  </si>
+  <si>
+    <t>SITUATIONS VÉCUES OU OBSERVÉES EN STAGE DE DEUXIEME ANNEE DANS L'ORGANISATION ATHENA EXPERT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -278,6 +275,18 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -748,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -804,14 +813,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,31 +856,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,200 +1092,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB977"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BD4" sqref="BD4"/>
+      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.5703125" customWidth="1"/>
     <col min="2" max="5" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
     <col min="7" max="54" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
     </row>
     <row r="2" spans="1:54" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="41" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="42" t="s">
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="57"/>
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="57"/>
+      <c r="AG2" s="57"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="36"/>
-      <c r="AW2" s="36"/>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="36"/>
-      <c r="BB2" s="36"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="55"/>
+      <c r="BB2" s="55"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
-      <c r="BB3" s="45"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="62"/>
     </row>
     <row r="4" spans="1:54" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1286,7 +1306,7 @@
       <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="69" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
@@ -1319,10 +1339,10 @@
       <c r="Q4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="69" t="s">
         <v>24</v>
       </c>
       <c r="T4" s="4" t="s">
@@ -1331,7 +1351,7 @@
       <c r="U4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="69" t="s">
         <v>27</v>
       </c>
       <c r="W4" s="5" t="s">
@@ -1361,10 +1381,10 @@
       <c r="AE4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AG4" s="71" t="s">
         <v>38</v>
       </c>
       <c r="AH4" s="4" t="s">
@@ -1382,10 +1402,10 @@
       <c r="AL4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AM4" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN4" s="70" t="s">
         <v>45</v>
       </c>
       <c r="AO4" s="3" t="s">
@@ -1421,125 +1441,123 @@
       <c r="AY4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="AZ4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="BA4" s="4" t="s">
+      <c r="BA4" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="BB4" s="5" t="s">
+      <c r="BB4" s="70" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="36"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-      <c r="AJ5" s="36"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="36"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="36"/>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="36"/>
-      <c r="AS5" s="36"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="36"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="37"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="65"/>
     </row>
     <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="60">
+        <v>62</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="68">
         <v>44136</v>
       </c>
-      <c r="G6" s="53"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="54"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="54"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="41"/>
       <c r="W6" s="10"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
-      <c r="AA6" s="54"/>
+      <c r="AA6" s="41"/>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54" t="s">
-        <v>63</v>
-      </c>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
       <c r="AH6" s="10"/>
       <c r="AI6" s="10"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="10"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="58"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="45"/>
       <c r="AP6" s="10"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
       <c r="AU6" s="10"/>
@@ -1547,59 +1565,59 @@
       <c r="AW6" s="10"/>
       <c r="AX6" s="10"/>
       <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="55"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="42"/>
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="61">
+        <v>63</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="67">
         <v>44136</v>
       </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="43"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="57"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="57"/>
+      <c r="K7" s="44"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="57"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
       <c r="T7" s="17"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="17"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="44"/>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
-      <c r="AB7" s="57"/>
+      <c r="AB7" s="44"/>
       <c r="AC7" s="17"/>
       <c r="AD7" s="17"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="57"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
       <c r="AH7" s="17"/>
       <c r="AI7" s="17"/>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="57"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
       <c r="AO7" s="17"/>
       <c r="AP7" s="17"/>
       <c r="AQ7" s="17"/>
-      <c r="AR7" s="57"/>
+      <c r="AR7" s="44"/>
       <c r="AS7" s="17"/>
       <c r="AT7" s="17"/>
       <c r="AU7" s="17"/>
@@ -1607,19 +1625,19 @@
       <c r="AW7" s="17"/>
       <c r="AX7" s="17"/>
       <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="59"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="46"/>
     </row>
     <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="61">
+      <c r="E8" s="39"/>
+      <c r="F8" s="67">
         <v>43739</v>
       </c>
       <c r="G8" s="16"/>
@@ -1667,172 +1685,172 @@
       <c r="AW8" s="17"/>
       <c r="AX8" s="17"/>
       <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
+      <c r="AZ8" s="44"/>
       <c r="BA8" s="17"/>
       <c r="BB8" s="18"/>
     </row>
     <row r="9" spans="1:54" s="34" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="65"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="65"/>
-      <c r="AO9" s="65"/>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="65"/>
-      <c r="AV9" s="65"/>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="66"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="51"/>
     </row>
     <row r="10" spans="1:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="37"/>
+      <c r="A10" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="55"/>
+      <c r="AW10" s="55"/>
+      <c r="AX10" s="55"/>
+      <c r="AY10" s="55"/>
+      <c r="AZ10" s="55"/>
+      <c r="BA10" s="55"/>
+      <c r="BB10" s="65"/>
     </row>
     <row r="11" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
+        <v>65</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="60">
+      <c r="F11" s="68">
         <v>44228</v>
       </c>
-      <c r="G11" s="53"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="54"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
-      <c r="M11" s="54"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="54"/>
+      <c r="O11" s="41"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
       <c r="T11" s="10"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="41"/>
       <c r="W11" s="10"/>
-      <c r="X11" s="54"/>
+      <c r="X11" s="41"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="54"/>
+      <c r="Z11" s="41"/>
       <c r="AA11" s="10"/>
-      <c r="AB11" s="54"/>
+      <c r="AB11" s="41"/>
       <c r="AC11" s="10"/>
-      <c r="AD11" s="54"/>
+      <c r="AD11" s="41"/>
       <c r="AE11" s="10"/>
-      <c r="AF11" s="54"/>
+      <c r="AF11" s="41"/>
       <c r="AG11" s="10"/>
-      <c r="AH11" s="54"/>
+      <c r="AH11" s="41"/>
       <c r="AI11" s="10"/>
-      <c r="AJ11" s="54"/>
+      <c r="AJ11" s="41"/>
       <c r="AK11" s="10"/>
-      <c r="AL11" s="54"/>
+      <c r="AL11" s="41"/>
       <c r="AM11" s="10"/>
       <c r="AN11" s="10"/>
-      <c r="AO11" s="54"/>
+      <c r="AO11" s="41"/>
       <c r="AP11" s="10"/>
-      <c r="AQ11" s="54"/>
+      <c r="AQ11" s="41"/>
       <c r="AR11" s="10"/>
       <c r="AS11" s="10"/>
       <c r="AT11" s="10"/>
@@ -1841,58 +1859,58 @@
       <c r="AW11" s="10"/>
       <c r="AX11" s="10"/>
       <c r="AY11" s="10"/>
-      <c r="AZ11" s="54"/>
-      <c r="BA11" s="54"/>
-      <c r="BB11" s="55"/>
+      <c r="AZ11" s="41"/>
+      <c r="BA11" s="41"/>
+      <c r="BB11" s="42"/>
     </row>
     <row r="12" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
+        <v>66</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="61">
+      <c r="F12" s="67">
         <v>44256</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="57"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="57"/>
+      <c r="M12" s="44"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="57"/>
+      <c r="O12" s="44"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="44"/>
       <c r="W12" s="17"/>
-      <c r="X12" s="57"/>
+      <c r="X12" s="44"/>
       <c r="Y12" s="17"/>
-      <c r="Z12" s="57"/>
+      <c r="Z12" s="44"/>
       <c r="AA12" s="17"/>
-      <c r="AB12" s="57"/>
+      <c r="AB12" s="44"/>
       <c r="AC12" s="17"/>
-      <c r="AD12" s="57"/>
+      <c r="AD12" s="44"/>
       <c r="AE12" s="17"/>
-      <c r="AF12" s="57"/>
+      <c r="AF12" s="44"/>
       <c r="AG12" s="17"/>
-      <c r="AH12" s="57"/>
+      <c r="AH12" s="44"/>
       <c r="AI12" s="17"/>
-      <c r="AJ12" s="57"/>
+      <c r="AJ12" s="44"/>
       <c r="AK12" s="17"/>
-      <c r="AL12" s="57"/>
+      <c r="AL12" s="44"/>
       <c r="AM12" s="17"/>
       <c r="AN12" s="17"/>
-      <c r="AO12" s="57"/>
+      <c r="AO12" s="44"/>
       <c r="AP12" s="17"/>
-      <c r="AQ12" s="57"/>
+      <c r="AQ12" s="44"/>
       <c r="AR12" s="17"/>
       <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
@@ -1901,9 +1919,9 @@
       <c r="AW12" s="17"/>
       <c r="AX12" s="17"/>
       <c r="AY12" s="17"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="59"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+      <c r="BB12" s="46"/>
     </row>
     <row r="13" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
@@ -2354,62 +2372,62 @@
       <c r="BB20" s="33"/>
     </row>
     <row r="21" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="36"/>
-      <c r="AU21" s="36"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="36"/>
-      <c r="AX21" s="36"/>
-      <c r="AY21" s="36"/>
-      <c r="AZ21" s="36"/>
-      <c r="BA21" s="36"/>
-      <c r="BB21" s="36"/>
+      <c r="A21" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="55"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="55"/>
+      <c r="AH21" s="55"/>
+      <c r="AI21" s="55"/>
+      <c r="AJ21" s="55"/>
+      <c r="AK21" s="55"/>
+      <c r="AL21" s="55"/>
+      <c r="AM21" s="55"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="55"/>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="55"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="55"/>
     </row>
     <row r="22" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
@@ -2468,60 +2486,60 @@
       <c r="BB22" s="33"/>
     </row>
     <row r="23" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="36"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="36"/>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-      <c r="AJ23" s="36"/>
-      <c r="AK23" s="36"/>
-      <c r="AL23" s="36"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="36"/>
-      <c r="AO23" s="36"/>
-      <c r="AP23" s="36"/>
-      <c r="AQ23" s="36"/>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="36"/>
-      <c r="AZ23" s="36"/>
-      <c r="BA23" s="36"/>
-      <c r="BB23" s="36"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="55"/>
+      <c r="AF23" s="55"/>
+      <c r="AG23" s="55"/>
+      <c r="AH23" s="55"/>
+      <c r="AI23" s="55"/>
+      <c r="AJ23" s="55"/>
+      <c r="AK23" s="55"/>
+      <c r="AL23" s="55"/>
+      <c r="AM23" s="55"/>
+      <c r="AN23" s="55"/>
+      <c r="AO23" s="55"/>
+      <c r="AP23" s="55"/>
+      <c r="AQ23" s="55"/>
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="55"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="55"/>
     </row>
     <row r="24" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
@@ -2580,60 +2598,60 @@
       <c r="BB24" s="33"/>
     </row>
     <row r="25" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="36"/>
-      <c r="AS25" s="36"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="36"/>
-      <c r="AV25" s="36"/>
-      <c r="AW25" s="36"/>
-      <c r="AX25" s="36"/>
-      <c r="AY25" s="36"/>
-      <c r="AZ25" s="36"/>
-      <c r="BA25" s="36"/>
-      <c r="BB25" s="36"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="55"/>
+      <c r="AF25" s="55"/>
+      <c r="AG25" s="55"/>
+      <c r="AH25" s="55"/>
+      <c r="AI25" s="55"/>
+      <c r="AJ25" s="55"/>
+      <c r="AK25" s="55"/>
+      <c r="AL25" s="55"/>
+      <c r="AM25" s="55"/>
+      <c r="AN25" s="55"/>
+      <c r="AO25" s="55"/>
+      <c r="AP25" s="55"/>
+      <c r="AQ25" s="55"/>
+      <c r="AR25" s="55"/>
+      <c r="AS25" s="55"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="55"/>
+      <c r="AV25" s="55"/>
+      <c r="AW25" s="55"/>
+      <c r="AX25" s="55"/>
+      <c r="AY25" s="55"/>
+      <c r="AZ25" s="55"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="55"/>
     </row>
     <row r="26" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3602,7 +3620,7 @@
     <mergeCell ref="F3:BB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
